--- a/CHECK_SWI-FLUX_O2_TOC_Int_0102.xlsx
+++ b/CHECK_SWI-FLUX_O2_TOC_Int_0102.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
-  <si>
-    <t>Exp below with zbio=10cm, so TOC degradation in bioturbated and non-bioturbated layer. </t>
-  </si>
-  <si>
-    <t>There is just a tiny tiny change for the integrated TOC degradation rates with changing k-values left (2nd and 3rd column below). This also causes an equivalent difference in O2-SWI-flux (4th and 5th column). </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+  <si>
+    <t>Exp below with zbio=10cm, so TOC degradation in bioturbated and non-bioturbated layer.</t>
+  </si>
+  <si>
+    <t>There is just a tiny tiny change for the integrated TOC degradation rates with changing k-values left (2nd and 3rd column below). This also causes an equivalent difference in O2-SWI-flux (4th and 5th column).</t>
   </si>
   <si>
     <t>I also compared the calculated O2-flux with the theoretical O2-demand (6th column). The values are also very similar and approach the theoretical value for higher k (7th and 8th column).</t>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>K=2.0</t>
+  </si>
+  <si>
+    <t>K=3.0</t>
   </si>
   <si>
     <t>ALL NON-Bioturbated</t>
@@ -342,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -484,6 +487,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,15 +611,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1785714285714"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4642857142857"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0561224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1020408163265"/>
@@ -732,14 +739,14 @@
         <v>2.65441224306622E-005</v>
       </c>
       <c r="C8" s="19" t="n">
-        <f aca="false">B8/B$41</f>
+        <f aca="false">B8/B$46</f>
         <v>1</v>
       </c>
       <c r="D8" s="18" t="n">
         <v>-7.27193507624543E-006</v>
       </c>
       <c r="E8" s="19" t="n">
-        <f aca="false">D8/D$41</f>
+        <f aca="false">D8/D$46</f>
         <v>0.913188358394717</v>
       </c>
       <c r="F8" s="18" t="n">
@@ -765,14 +772,14 @@
         <v>2.64257505291113E-005</v>
       </c>
       <c r="C9" s="19" t="n">
-        <f aca="false">B9/B$41</f>
+        <f aca="false">B9/B$46</f>
         <v>0.995540560745223</v>
       </c>
       <c r="D9" s="18" t="n">
         <v>-7.9277251587334E-006</v>
       </c>
       <c r="E9" s="19" t="n">
-        <f aca="false">D9/D$41</f>
+        <f aca="false">D9/D$46</f>
         <v>0.995540560745225</v>
       </c>
       <c r="F9" s="18" t="n">
@@ -808,14 +815,14 @@
         <v>2.64421673928606E-005</v>
       </c>
       <c r="C10" s="19" t="n">
-        <f aca="false">B10/B$41</f>
+        <f aca="false">B10/B$46</f>
         <v>0.996159035279169</v>
       </c>
       <c r="D10" s="18" t="n">
         <v>-7.93265021785814E-006</v>
       </c>
       <c r="E10" s="19" t="n">
-        <f aca="false">D10/D$41</f>
+        <f aca="false">D10/D$46</f>
         <v>0.996159035279165</v>
       </c>
       <c r="F10" s="18" t="n">
@@ -851,14 +858,14 @@
         <v>2.65429217454686E-005</v>
       </c>
       <c r="C11" s="19" t="n">
-        <f aca="false">B11/B$41</f>
+        <f aca="false">B11/B$46</f>
         <v>0.999954766438531</v>
       </c>
       <c r="D11" s="18" t="n">
         <v>-7.96287652363969E-006</v>
       </c>
       <c r="E11" s="19" t="n">
-        <f aca="false">D11/D$41</f>
+        <f aca="false">D11/D$46</f>
         <v>0.999954766438421</v>
       </c>
       <c r="F11" s="18" t="n">
@@ -894,14 +901,14 @@
         <v>2.65440672602384E-005</v>
       </c>
       <c r="C12" s="30" t="n">
-        <f aca="false">B12/B$41</f>
+        <f aca="false">B12/B$46</f>
         <v>0.999997921557816</v>
       </c>
       <c r="D12" s="29" t="n">
         <v>-7.96322017808089E-006</v>
       </c>
       <c r="E12" s="30" t="n">
-        <f aca="false">D12/D$41</f>
+        <f aca="false">D12/D$46</f>
         <v>0.999997921558994</v>
       </c>
       <c r="F12" s="29" t="n">
@@ -937,14 +944,14 @@
         <v>2.65441216170908E-005</v>
       </c>
       <c r="C13" s="19" t="n">
-        <f aca="false">B13/B$41</f>
+        <f aca="false">B13/B$46</f>
         <v>0.999999969350224</v>
       </c>
       <c r="D13" s="29" t="n">
         <v>-7.96323648496311E-006</v>
       </c>
       <c r="E13" s="19" t="n">
-        <f aca="false">D13/D$41</f>
+        <f aca="false">D13/D$46</f>
         <v>0.999999969329614</v>
       </c>
       <c r="F13" s="29" t="n">
@@ -974,12 +981,15 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="36"/>
+    </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="6"/>
       <c r="E16" s="8"/>
     </row>
@@ -1013,7 +1023,7 @@
       <c r="D18" s="18" t="n">
         <v>-4.93651134775928E-006</v>
       </c>
-      <c r="E18" s="37" t="n">
+      <c r="E18" s="38" t="n">
         <v>-5.51088399591927E-022</v>
       </c>
     </row>
@@ -1030,7 +1040,7 @@
       <c r="D19" s="18" t="n">
         <v>-2.23142971782911E-007</v>
       </c>
-      <c r="E19" s="37" t="n">
+      <c r="E19" s="38" t="n">
         <v>-6.70802246041072E-167</v>
       </c>
     </row>
@@ -1047,7 +1057,7 @@
       <c r="D20" s="18" t="n">
         <v>-3.62307952543332E-025</v>
       </c>
-      <c r="E20" s="37" t="n">
+      <c r="E20" s="38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1074,7 @@
       <c r="D21" s="18" t="n">
         <v>-6.80416815252049E-169</v>
       </c>
-      <c r="E21" s="37" t="n">
+      <c r="E21" s="38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1081,7 +1091,7 @@
       <c r="D22" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="37" t="n">
+      <c r="E22" s="38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1089,16 +1099,16 @@
       <c r="A23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="38" t="n">
+      <c r="C23" s="39" t="n">
         <v>-8.13571432445315E-013</v>
       </c>
-      <c r="D23" s="38" t="n">
+      <c r="D23" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="39" t="n">
+      <c r="E23" s="40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1109,23 +1119,23 @@
       <c r="C26" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="40" t="n">
+      <c r="D26" s="41" t="n">
         <v>-7.94547266840715E-006</v>
       </c>
       <c r="E26" s="0" t="n">
-        <f aca="false">D26/D$41</f>
+        <f aca="false">D26/D$46</f>
         <v>0.99776924115211</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="40" t="n">
+      <c r="D27" s="41" t="n">
         <v>-7.96322845363977E-006</v>
       </c>
       <c r="E27" s="0" t="n">
-        <f aca="false">D27/D$41</f>
+        <f aca="false">D27/D$46</f>
         <v>0.999998960779497</v>
       </c>
     </row>
@@ -1133,11 +1143,23 @@
       <c r="A30" s="35" t="s">
         <v>39</v>
       </c>
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
         <v>40</v>
       </c>
+      <c r="B31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1157,35 +1179,33 @@
       <c r="B33" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
+      <c r="C33" s="36"/>
       <c r="D33" s="2" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="F33" s="40" t="n">
-        <v>6.16865194287026E-006</v>
-      </c>
-      <c r="G33" s="40"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
       <c r="H33" s="0" t="n">
         <f aca="false">-F33/D32</f>
-        <v>0.774641286281466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="42" t="n">
+      <c r="B34" s="43" t="n">
         <v>-268435455.999973</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>-7.96323672919865E-006</v>
       </c>
-      <c r="F34" s="40" t="n">
-        <v>1.14774912588703E-007</v>
-      </c>
-      <c r="G34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="0" t="n">
         <f aca="false">-F34/D33</f>
-        <v>0.0144130981523957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1198,24 +1218,33 @@
       <c r="D35" s="2" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="F35" s="2" t="n">
-        <v>-7.96323672919866E-006</v>
-      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="43" t="n">
+      <c r="H35" s="44" t="n">
         <f aca="false">-F35/D34</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44" t="n">
+      <c r="B36" s="45" t="n">
         <v>-2.12676479325586E+037</v>
       </c>
-      <c r="D36" s="44" t="n">
+      <c r="D36" s="45" t="n">
         <v>5.51765372175541E+036</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="36" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D37" s="36" t="n">
+        <v>-7.96323672919866E-006</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,94 +1257,106 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>2.65441224306622E-005</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>-7.96323672919865E-006</v>
-      </c>
       <c r="E41" s="18"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>2.65441224306622E-005</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>-7.96323672919865E-006</v>
-      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>2.65441224306622E-005</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>-7.96323672919865E-006</v>
-      </c>
-      <c r="E43" s="45"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>2.65441224306622E-005</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>-7.96323672919865E-006</v>
-      </c>
+      <c r="A44" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>-7.96323672919865E-006</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="2" t="n">
+        <v>-7.96323672919865E-006</v>
+      </c>
+      <c r="E47" s="36"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>-7.96323672919865E-006</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>-7.96323672919865E-006</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B50" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D50" s="2" t="n">
         <v>-7.96323672919865E-006</v>
       </c>
     </row>

--- a/CHECK_SWI-FLUX_O2_TOC_Int_0102.xlsx
+++ b/CHECK_SWI-FLUX_O2_TOC_Int_0102.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="433" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="1 diff coeff" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2 diff coeffs" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Check 2 D 10022017" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="86">
   <si>
     <t>Exp below with zbio=10cm, so TOC degradation in bioturbated and non-bioturbated layer.</t>
   </si>
@@ -30,6 +31,9 @@
     <t>Zbio = 10</t>
   </si>
   <si>
+    <t>tol_const = 1e-18</t>
+  </si>
+  <si>
     <t>Here with adv-flux at zinf → higher difference to TOC-integral</t>
   </si>
   <si>
@@ -69,6 +73,9 @@
     <t>compared to non-biot. Flux</t>
   </si>
   <si>
+    <t>compared to theor demand</t>
+  </si>
+  <si>
     <t>at 100cm</t>
   </si>
   <si>
@@ -105,9 +112,36 @@
     <t>higher for k = 0.005, maybe bc. At zbio a more negative TOC degradation is calculated (see below)</t>
   </si>
   <si>
+    <t>Diff k=0.1</t>
+  </si>
+  <si>
+    <t>WITH SMALLER tol_const</t>
+  </si>
+  <si>
+    <t>tol_const = 1e-25</t>
+  </si>
+  <si>
+    <t>DOES NOT MAKE A DIFFERENCE WHICH tol_const USED</t>
+  </si>
+  <si>
+    <t>tol_const = 1e-30</t>
+  </si>
+  <si>
+    <t>tol_const = 1e-40</t>
+  </si>
+  <si>
+    <t>compared to non-bio-flux</t>
+  </si>
+  <si>
+    <t>compared to theoret. Flux</t>
+  </si>
+  <si>
     <t>TOC1 degradation rates at different integration limits</t>
   </si>
   <si>
+    <t>Problem comes from different Integrals at zbio</t>
+  </si>
+  <si>
     <t>Integral biot. At z0</t>
   </si>
   <si>
@@ -120,12 +154,15 @@
     <t>Integral non-biot. At zinf</t>
   </si>
   <si>
+    <t>Difference at zbio</t>
+  </si>
+  <si>
+    <t>Difference All from expected</t>
+  </si>
+  <si>
     <t>K1,2 = 0.05</t>
   </si>
   <si>
-    <t>same as above</t>
-  </si>
-  <si>
     <t>K1=1.0</t>
   </si>
   <si>
@@ -169,24 +206,98 @@
   </si>
   <si>
     <t>TOC Integral All</t>
+  </si>
+  <si>
+    <t>wdepth=3575.0</t>
+  </si>
+  <si>
+    <t>NOW WITH TWO DIFFUSION COEFFICIENTS</t>
+  </si>
+  <si>
+    <t>DC1, w following Middelburg</t>
+  </si>
+  <si>
+    <t>DC2 = 0.1</t>
+  </si>
+  <si>
+    <t>DC2 = 0.01</t>
+  </si>
+  <si>
+    <t>C01_nonbio= 1.0*...</t>
+  </si>
+  <si>
+    <t>O2 demand</t>
+  </si>
+  <si>
+    <t>Integrated POC</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>OMEN O2</t>
+  </si>
+  <si>
+    <t>OMEN-theoretical O2</t>
+  </si>
+  <si>
+    <t>OMEN / theoretical</t>
+  </si>
+  <si>
+    <t>OMEN / theoretical – 1</t>
+  </si>
+  <si>
+    <t>Int bio at zbio</t>
+  </si>
+  <si>
+    <t>Int nonbio at zbio</t>
+  </si>
+  <si>
+    <t>Difference of Integrals</t>
+  </si>
+  <si>
+    <t>Inegrated POC</t>
+  </si>
+  <si>
+    <t>OMEN-theoretical</t>
+  </si>
+  <si>
+    <t>OMEN / theoretical - 1</t>
+  </si>
+  <si>
+    <t>C01_nonbio= 0.01*...</t>
+  </si>
+  <si>
+    <t>Wdepth=100.0</t>
+  </si>
+  <si>
+    <t>Wdepth=1000.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="14">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.0000000E+000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.00E+000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.0000E+000"/>
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00E+000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000E+000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.000000E+000"/>
+    <numFmt numFmtId="173" formatCode="0.0000E+000"/>
+    <numFmt numFmtId="174" formatCode="0.000000000"/>
+    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00000000E+000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +329,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -239,9 +358,49 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF3333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF007826"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF00331A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -345,7 +504,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -370,11 +529,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,35 +549,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,27 +617,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -454,35 +653,159 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -490,47 +813,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,7 +898,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF00331A"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -611,26 +914,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0561224489796"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1020408163265"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4489795918367"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4897959183673"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.0561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="25.0561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,266 +960,268 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>9</v>
+      <c r="J6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="E7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="18" t="n">
+      <c r="A8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="21" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="C8" s="19" t="n">
-        <f aca="false">B8/B$46</f>
+      <c r="C8" s="22" t="n">
+        <f aca="false">B8/B$43</f>
         <v>1</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="23" t="n">
         <v>-7.27193507624543E-006</v>
       </c>
-      <c r="E8" s="19" t="n">
-        <f aca="false">D8/D$46</f>
-        <v>0.913188358394717</v>
-      </c>
-      <c r="F8" s="18" t="n">
+      <c r="E8" s="22" t="n">
+        <f aca="false">D8/F$8</f>
+        <v>0.913188358394716</v>
+      </c>
+      <c r="F8" s="23" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G8" s="19" t="n">
+      <c r="G8" s="24" t="n">
         <f aca="false">D8/F8</f>
         <v>0.913188358394716</v>
       </c>
-      <c r="H8" s="20" t="n">
+      <c r="H8" s="25" t="n">
         <f aca="false">D8-F8</f>
         <v>6.91301652953229E-007</v>
       </c>
-      <c r="I8" s="21" t="n">
+      <c r="I8" s="26" t="n">
         <v>9.16033E-017</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="18" t="n">
+      <c r="A9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28" t="n">
         <v>2.64257505291113E-005</v>
       </c>
-      <c r="C9" s="19" t="n">
-        <f aca="false">B9/B$46</f>
+      <c r="C9" s="22" t="n">
+        <f aca="false">B9/B$43</f>
         <v>0.995540560745223</v>
       </c>
-      <c r="D9" s="18" t="n">
+      <c r="D9" s="29" t="n">
         <v>-7.9277251587334E-006</v>
       </c>
-      <c r="E9" s="19" t="n">
-        <f aca="false">D9/D$46</f>
+      <c r="E9" s="22" t="n">
+        <f aca="false">D9/F$8</f>
         <v>0.995540560745225</v>
       </c>
-      <c r="F9" s="18" t="n">
+      <c r="F9" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G9" s="19" t="n">
+      <c r="G9" s="30" t="n">
         <f aca="false">D9/F9</f>
         <v>0.995540560745225</v>
       </c>
-      <c r="H9" s="20" t="n">
+      <c r="H9" s="31" t="n">
         <f aca="false">D9-F9</f>
         <v>3.55115704652584E-008</v>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="I9" s="32" t="n">
         <v>4.92029E-161</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="29" t="n">
         <v>-7.92810313386456E-006</v>
       </c>
-      <c r="K9" s="23" t="n">
+      <c r="K9" s="33" t="n">
         <f aca="false">J9/J$12</f>
         <v>0.995436796957211</v>
       </c>
-      <c r="L9" s="24" t="s">
-        <v>20</v>
+      <c r="L9" s="34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="18" t="n">
+      <c r="A10" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="28" t="n">
         <v>2.64421673928606E-005</v>
       </c>
-      <c r="C10" s="19" t="n">
-        <f aca="false">B10/B$46</f>
+      <c r="C10" s="22" t="n">
+        <f aca="false">B10/B$43</f>
         <v>0.996159035279169</v>
       </c>
-      <c r="D10" s="18" t="n">
+      <c r="D10" s="29" t="n">
         <v>-7.93265021785814E-006</v>
       </c>
-      <c r="E10" s="19" t="n">
-        <f aca="false">D10/D$46</f>
-        <v>0.996159035279165</v>
-      </c>
-      <c r="F10" s="18" t="n">
+      <c r="E10" s="22" t="n">
+        <f aca="false">D10/F$8</f>
+        <v>0.996159035279164</v>
+      </c>
+      <c r="F10" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G10" s="19" t="n">
+      <c r="G10" s="30" t="n">
         <f aca="false">D10/F10</f>
         <v>0.996159035279164</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="H10" s="31" t="n">
         <f aca="false">D10-F10</f>
         <v>3.05865113405183E-008</v>
       </c>
-      <c r="I10" s="25" t="n">
+      <c r="I10" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="18" t="n">
+      <c r="J10" s="29" t="n">
         <v>-7.93325610848675E-006</v>
       </c>
-      <c r="K10" s="23" t="n">
+      <c r="K10" s="33" t="n">
         <f aca="false">J10/J$12</f>
         <v>0.996083794160212</v>
       </c>
-      <c r="L10" s="24" t="s">
-        <v>22</v>
+      <c r="L10" s="34" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="18" t="n">
+      <c r="A11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="28" t="n">
         <v>2.65429217454686E-005</v>
       </c>
-      <c r="C11" s="19" t="n">
-        <f aca="false">B11/B$46</f>
+      <c r="C11" s="22" t="n">
+        <f aca="false">B11/B$43</f>
         <v>0.999954766438531</v>
       </c>
-      <c r="D11" s="18" t="n">
+      <c r="D11" s="29" t="n">
         <v>-7.96287652363969E-006</v>
       </c>
-      <c r="E11" s="19" t="n">
-        <f aca="false">D11/D$46</f>
-        <v>0.999954766438421</v>
-      </c>
-      <c r="F11" s="18" t="n">
+      <c r="E11" s="22" t="n">
+        <f aca="false">D11/F$8</f>
+        <v>0.99995476643842</v>
+      </c>
+      <c r="F11" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G11" s="19" t="n">
+      <c r="G11" s="30" t="n">
         <f aca="false">D11/F11</f>
         <v>0.99995476643842</v>
       </c>
-      <c r="H11" s="20" t="n">
+      <c r="H11" s="31" t="n">
         <f aca="false">D11-F11</f>
         <v>3.60205558968464E-010</v>
       </c>
-      <c r="I11" s="25" t="n">
+      <c r="I11" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="29" t="n">
         <v>-7.96396406755138E-006</v>
       </c>
-      <c r="K11" s="23" t="n">
+      <c r="K11" s="33" t="n">
         <f aca="false">J11/J$12</f>
         <v>0.999939424176151</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>24</v>
+      <c r="L11" s="37" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="29" t="n">
+      <c r="A12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="38" t="n">
         <v>2.65440672602384E-005</v>
       </c>
-      <c r="C12" s="30" t="n">
-        <f aca="false">B12/B$46</f>
+      <c r="C12" s="22" t="n">
+        <f aca="false">B12/B$43</f>
         <v>0.999997921557816</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="D12" s="39" t="n">
         <v>-7.96322017808089E-006</v>
       </c>
-      <c r="E12" s="30" t="n">
-        <f aca="false">D12/D$46</f>
-        <v>0.999997921558994</v>
-      </c>
-      <c r="F12" s="29" t="n">
+      <c r="E12" s="22" t="n">
+        <f aca="false">D12/F$8</f>
+        <v>0.999997921558993</v>
+      </c>
+      <c r="F12" s="39" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G12" s="30" t="n">
+      <c r="G12" s="40" t="n">
         <f aca="false">D12/F12</f>
         <v>0.999997921558993</v>
       </c>
@@ -922,447 +1229,846 @@
         <f aca="false">D12-F12</f>
         <v>1.65511177693486E-011</v>
       </c>
-      <c r="I12" s="32" t="n">
+      <c r="I12" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="18" t="n">
+      <c r="J12" s="29" t="n">
         <v>-7.96444652046086E-006</v>
       </c>
-      <c r="K12" s="23" t="n">
+      <c r="K12" s="33" t="n">
         <f aca="false">J12/J$12</f>
         <v>1</v>
       </c>
-      <c r="L12" s="33" t="s">
-        <v>26</v>
+      <c r="L12" s="41" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="29" t="n">
+      <c r="A13" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="43" t="n">
         <v>2.65441216170908E-005</v>
       </c>
-      <c r="C13" s="19" t="n">
-        <f aca="false">B13/B$46</f>
+      <c r="C13" s="22" t="n">
+        <f aca="false">B13/B$43</f>
         <v>0.999999969350224</v>
       </c>
-      <c r="D13" s="29" t="n">
-        <v>-7.96323648496311E-006</v>
-      </c>
-      <c r="E13" s="19" t="n">
-        <f aca="false">D13/D$46</f>
-        <v>0.999999969329614</v>
-      </c>
-      <c r="F13" s="29" t="n">
+      <c r="D13" s="44" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G13" s="30" t="n">
+      <c r="E13" s="22" t="n">
+        <f aca="false">D13/F$8</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="44" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G13" s="45" t="n">
         <f aca="false">D13/F13</f>
-        <v>0.999999969329613</v>
-      </c>
-      <c r="H13" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="46" t="n">
         <f aca="false">D13-F13</f>
-        <v>2.44235550159828E-013</v>
-      </c>
-      <c r="I13" s="32" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="n">
+      <c r="I13" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29" t="n">
         <v>-7.96456149344259E-006</v>
       </c>
-      <c r="K13" s="23" t="n">
+      <c r="K13" s="33" t="n">
         <f aca="false">J13/J$12</f>
         <v>1.00001443577798</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="35" t="s">
-        <v>28</v>
+      <c r="B14" s="48" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="36"/>
+      <c r="A15" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">C31-D31</f>
+        <v>-1.01955037801627E-007</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">B10-B43</f>
+        <v>-1.01955037801603E-007</v>
+      </c>
+      <c r="D15" s="50"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">C32-D32</f>
+        <v>-1.20068519363081E-009</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">B11-B44</f>
+        <v>-1.20068519360371E-009</v>
+      </c>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19"/>
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="50" t="n">
+        <v>2.65441224125456E-005</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <f aca="false">B20/$B$43</f>
+        <v>0.999999999317491</v>
+      </c>
+      <c r="D20" s="50" t="n">
+        <v>-7.9632367237637E-006</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">D20/$F$8</f>
+        <v>0.999999999317494</v>
+      </c>
+      <c r="F20" s="50" t="n">
+        <v>2.6544122430662E-005</v>
+      </c>
+      <c r="G20" s="22" t="n">
+        <f aca="false">F20/$B$43</f>
+        <v>0.999999999999992</v>
+      </c>
+      <c r="H20" s="50" t="n">
+        <v>-7.96323672919861E-006</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">H20/$F$8</f>
+        <v>0.999999999999994</v>
+      </c>
+      <c r="J20" s="50" t="n">
+        <v>2.65441224306621E-005</v>
+      </c>
+      <c r="K20" s="22" t="n">
+        <f aca="false">J20/$B$43</f>
+        <v>0.999999999999996</v>
+      </c>
+      <c r="L20" s="50" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="M20" s="55" t="n">
+        <f aca="false">L20/$F$8</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="55" t="n">
+        <f aca="false">E9</f>
+        <v>0.995540560745225</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="50" t="n">
+        <v>2.64421673928642E-005</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <f aca="false">B21/B$43</f>
+        <v>0.996159035279304</v>
+      </c>
+      <c r="D21" s="50" t="n">
+        <v>-7.93265021785923E-006</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">D21/F$8</f>
+        <v>0.996159035279301</v>
+      </c>
+      <c r="F21" s="50" t="n">
+        <v>2.64421677551672E-005</v>
+      </c>
+      <c r="G21" s="22" t="n">
+        <f aca="false">F21/$B$43</f>
+        <v>0.99615904892839</v>
+      </c>
+      <c r="H21" s="50" t="n">
+        <v>-7.93265032655015E-006</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">H21/$F$8</f>
+        <v>0.996159048928389</v>
+      </c>
+      <c r="J21" s="50" t="n">
+        <v>2.65441195616838E-005</v>
+      </c>
+      <c r="K21" s="22" t="n">
+        <f aca="false">J21/$B$43</f>
+        <v>0.999999891916623</v>
+      </c>
+      <c r="L21" s="50" t="n">
+        <v>-7.96323586850511E-006</v>
+      </c>
+      <c r="M21" s="55" t="n">
+        <f aca="false">L21/$F$8</f>
+        <v>0.999999891916619</v>
+      </c>
+      <c r="N21" s="55" t="n">
+        <f aca="false">E10</f>
+        <v>0.996159035279164</v>
+      </c>
+      <c r="P21" s="50"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="50" t="n">
+        <v>2.65429217454686E-005</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <f aca="false">B22/B$43</f>
+        <v>0.999954766438531</v>
+      </c>
+      <c r="D22" s="50" t="n">
+        <v>-7.96287652363969E-006</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">D22/F$8</f>
+        <v>0.99995476643842</v>
+      </c>
+      <c r="F22" s="50" t="n">
+        <v>2.65429217454686E-005</v>
+      </c>
+      <c r="G22" s="22" t="n">
+        <f aca="false">F22/$B$43</f>
+        <v>0.999954766438531</v>
+      </c>
+      <c r="H22" s="50" t="n">
+        <v>-7.96287652363969E-006</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">H22/$F$8</f>
+        <v>0.99995476643842</v>
+      </c>
+      <c r="J22" s="50" t="n">
+        <v>2.65429217454686E-005</v>
+      </c>
+      <c r="K22" s="22" t="n">
+        <f aca="false">J22/$B$43</f>
+        <v>0.999954766438531</v>
+      </c>
+      <c r="L22" s="50" t="n">
+        <v>-7.96287652363969E-006</v>
+      </c>
+      <c r="M22" s="55" t="n">
+        <f aca="false">L22/$F$8</f>
+        <v>0.99995476643842</v>
+      </c>
+      <c r="N22" s="55" t="n">
+        <f aca="false">E11</f>
+        <v>0.99995476643842</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="50" t="n">
+        <v>2.65440672602384E-005</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <f aca="false">B23/B$43</f>
+        <v>0.999997921557816</v>
+      </c>
+      <c r="D23" s="50" t="n">
+        <v>-7.96322017808089E-006</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">D23/F$8</f>
+        <v>0.999997921558993</v>
+      </c>
+      <c r="F23" s="50" t="n">
+        <v>2.65440672602384E-005</v>
+      </c>
+      <c r="G23" s="22" t="n">
+        <f aca="false">F23/$B$43</f>
+        <v>0.999997921557816</v>
+      </c>
+      <c r="H23" s="50" t="n">
+        <v>-7.96322017808089E-006</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">H23/$F$8</f>
+        <v>0.999997921558993</v>
+      </c>
+      <c r="J23" s="50" t="n">
+        <v>2.65440672602384E-005</v>
+      </c>
+      <c r="K23" s="22" t="n">
+        <f aca="false">J23/$B$43</f>
+        <v>0.999997921557816</v>
+      </c>
+      <c r="L23" s="50" t="n">
+        <v>-7.96322017808089E-006</v>
+      </c>
+      <c r="M23" s="55" t="n">
+        <f aca="false">L23/$F$8</f>
+        <v>0.999997921558993</v>
+      </c>
+      <c r="N23" s="55" t="n">
+        <f aca="false">E12</f>
+        <v>0.999997921558993</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="18" t="n">
+      <c r="B24" s="50" t="n">
+        <v>2.65441216170908E-005</v>
+      </c>
+      <c r="C24" s="22" t="n">
+        <f aca="false">B24/B$43</f>
+        <v>0.999999969350224</v>
+      </c>
+      <c r="D24" s="50" t="n">
+        <v>-7.96323648496311E-006</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">D24/F$8</f>
+        <v>0.999999969329613</v>
+      </c>
+      <c r="F24" s="50" t="n">
+        <v>2.65441216170908E-005</v>
+      </c>
+      <c r="G24" s="22" t="n">
+        <f aca="false">F24/$B$43</f>
+        <v>0.999999969350224</v>
+      </c>
+      <c r="H24" s="50" t="n">
+        <v>-7.96323648496311E-006</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">H24/$F$8</f>
+        <v>0.999999969329613</v>
+      </c>
+      <c r="J24" s="50" t="n">
+        <v>2.65441216170908E-005</v>
+      </c>
+      <c r="K24" s="22" t="n">
+        <f aca="false">J24/$B$43</f>
+        <v>0.999999969350224</v>
+      </c>
+      <c r="L24" s="50" t="n">
+        <v>-7.96323648496311E-006</v>
+      </c>
+      <c r="M24" s="55" t="n">
+        <f aca="false">L24/$F$8</f>
+        <v>0.999999969329613</v>
+      </c>
+      <c r="N24" s="55" t="n">
+        <f aca="false">E13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="50"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="29" t="n">
         <v>-2.65441224306622E-005</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C29" s="29" t="n">
         <v>-4.93651134775929E-006</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D29" s="29" t="n">
         <v>-4.93651134775928E-006</v>
       </c>
-      <c r="E18" s="38" t="n">
+      <c r="E29" s="59" t="n">
         <v>-5.51088399591927E-022</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="18" t="n">
+      <c r="F29" s="60" t="n">
+        <f aca="false">C29-D29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="60" t="n">
+        <f aca="false">B8-B43</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="61" t="n">
+        <v>-2.65441224306622E-005</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="C30" s="13" t="n">
         <v>-3.41514873333825E-007</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D30" s="13" t="n">
         <v>-2.23142971782911E-007</v>
       </c>
-      <c r="E19" s="38" t="n">
+      <c r="E30" s="62" t="n">
         <v>-6.70802246041072E-167</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="18" t="n">
+      <c r="F30" s="60" t="n">
+        <f aca="false">C30-D30</f>
+        <v>-1.18371901550914E-007</v>
+      </c>
+      <c r="G30" s="60" t="n">
+        <f aca="false">B9-B44</f>
+        <v>-1.18371901550904E-007</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="29" t="n">
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="C31" s="29" t="n">
         <v>-1.01955037801627E-007</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D31" s="29" t="n">
         <v>-3.62307952543332E-025</v>
       </c>
-      <c r="E20" s="38" t="n">
+      <c r="E31" s="59" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="18" t="n">
+      <c r="F31" s="60" t="n">
+        <f aca="false">C31-D31</f>
+        <v>-1.01955037801627E-007</v>
+      </c>
+      <c r="G31" s="60" t="n">
+        <f aca="false">B10-B45</f>
+        <v>268435455.999999</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="29" t="n">
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="C32" s="29" t="n">
         <v>-1.20068519363081E-009</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D32" s="29" t="n">
         <v>-6.80416815252049E-169</v>
       </c>
-      <c r="E21" s="38" t="n">
+      <c r="E32" s="59" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="18" t="n">
+      <c r="F32" s="60" t="n">
+        <f aca="false">C32-D32</f>
+        <v>-1.20068519363081E-009</v>
+      </c>
+      <c r="G32" s="60" t="n">
+        <f aca="false">B11-B46</f>
+        <v>-1.20068519360371E-009</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="29" t="n">
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="C33" s="29" t="n">
         <v>-5.51704237850004E-011</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D33" s="29" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="38" t="n">
+      <c r="E33" s="59" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="39" t="n">
+      <c r="F33" s="60" t="n">
+        <f aca="false">C33-D33</f>
+        <v>-5.51704237850004E-011</v>
+      </c>
+      <c r="G33" s="60" t="n">
+        <f aca="false">B12-B47</f>
+        <v>2.12676479325586E+037</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="29" t="n">
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="C34" s="63" t="n">
         <v>-8.13571432445315E-013</v>
       </c>
-      <c r="D23" s="39" t="n">
+      <c r="D34" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="40" t="n">
+      <c r="E34" s="64" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="41" t="n">
+      <c r="F34" s="60" t="n">
+        <f aca="false">C34-D34</f>
+        <v>-8.13571432445315E-013</v>
+      </c>
+      <c r="G34" s="60" t="n">
+        <f aca="false">B13-B48</f>
+        <v>-8.13571401952129E-013</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="50"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="50"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="65" t="n">
         <v>-7.94547266840715E-006</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">D26/D$46</f>
+      <c r="E37" s="0" t="n">
+        <f aca="false">D37/D$45</f>
         <v>0.99776924115211</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="41" t="n">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="65" t="n">
         <v>-7.96322845363977E-006</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">D27/D$46</f>
+      <c r="E38" s="0" t="n">
+        <f aca="false">D38/D$45</f>
         <v>0.999998960779497</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="2" t="n">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D43" s="2" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="2" t="n">
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="2" t="n">
+      <c r="C44" s="50"/>
+      <c r="D44" s="2" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="0" t="n">
-        <f aca="false">-F33/D32</f>
+      <c r="E44" s="50"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="0" t="n">
+        <f aca="false">-F44/D43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="43" t="n">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="67" t="n">
         <v>-268435455.999973</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D45" s="2" t="n">
         <v>-7.96323672919865E-006</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="0" t="n">
-        <f aca="false">-F34/D33</f>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="0" t="n">
+        <f aca="false">-F45/D44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>2.65441224306622E-005</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>-7.96323672919866E-006</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="44" t="n">
-        <f aca="false">-F35/D34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="45" t="n">
-        <v>-2.12676479325586E+037</v>
-      </c>
-      <c r="D36" s="45" t="n">
-        <v>5.51765372175541E+036</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="36" t="n">
-        <v>2.65441224306622E-005</v>
-      </c>
-      <c r="D37" s="36" t="n">
-        <v>-7.96323672919866E-006</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E41" s="18"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="46"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>41</v>
+      <c r="A46" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-7.96323672919865E-006</v>
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="68" t="n">
+        <f aca="false">-F46/D45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B47" s="69" t="n">
+        <v>-2.12676479325586E+037</v>
+      </c>
+      <c r="D47" s="69" t="n">
+        <v>5.51765372175541E+036</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="50" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="2" t="n">
+      <c r="D48" s="50" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D57" s="2" t="n">
         <v>-7.96323672919865E-006</v>
       </c>
-      <c r="E47" s="36"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="2" t="n">
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="C58" s="50"/>
+      <c r="D58" s="2" t="n">
         <v>-7.96323672919865E-006</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="2" t="n">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D59" s="2" t="n">
         <v>-7.96323672919865E-006</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="2" t="n">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="2" t="n">
         <v>2.65441224306622E-005</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D60" s="2" t="n">
         <v>-7.96323672919865E-006</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>-7.96323672919865E-006</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A16:C16"/>
+  <mergeCells count="2">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1379,17 +2085,1154 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3214285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="22" t="n">
+        <f aca="false">B8/B$42</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="22" t="n">
+        <f aca="false">D8/F8</f>
+        <v>-0</v>
+      </c>
+      <c r="F8" s="29" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G8" s="70" t="n">
+        <f aca="false">D8/F8</f>
+        <v>-0</v>
+      </c>
+      <c r="H8" s="31" t="n">
+        <f aca="false">D8-F8</f>
+        <v>7.96323672919866E-006</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="28" t="n">
+        <v>2.66035346768609E-005</v>
+      </c>
+      <c r="C9" s="22" t="n">
+        <f aca="false">B9/B$42</f>
+        <v>1.00223824488279</v>
+      </c>
+      <c r="D9" s="29" t="n">
+        <v>-7.98106040305825E-006</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <f aca="false">D9/F9</f>
+        <v>1.00223824488279</v>
+      </c>
+      <c r="F9" s="29" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G9" s="70" t="n">
+        <f aca="false">D9/F9</f>
+        <v>1.00223824488279</v>
+      </c>
+      <c r="H9" s="31" t="n">
+        <f aca="false">D9-F9</f>
+        <v>-1.78236738595918E-008</v>
+      </c>
+      <c r="I9" s="71" t="n">
+        <v>1.44959E-038</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="28" t="n">
+        <v>2.65441643874416E-005</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <f aca="false">B10/B$42</f>
+        <v>1.00000158064293</v>
+      </c>
+      <c r="D10" s="29" t="n">
+        <v>-7.96324931623244E-006</v>
+      </c>
+      <c r="E10" s="22" t="n">
+        <f aca="false">D10/F10</f>
+        <v>1.00000158064292</v>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G10" s="70" t="n">
+        <f aca="false">D10/F10</f>
+        <v>1.00000158064292</v>
+      </c>
+      <c r="H10" s="31" t="n">
+        <f aca="false">D10-F10</f>
+        <v>-1.25870337813934E-011</v>
+      </c>
+      <c r="I10" s="71" t="n">
+        <v>2.00389E-088</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="38" t="n">
+        <v>2.65441225751953E-005</v>
+      </c>
+      <c r="C11" s="22" t="n">
+        <f aca="false">B11/B$42</f>
+        <v>1.00000000544501</v>
+      </c>
+      <c r="D11" s="39" t="n">
+        <v>-7.96323677257483E-006</v>
+      </c>
+      <c r="E11" s="22" t="n">
+        <f aca="false">D11/F11</f>
+        <v>1.00000000544705</v>
+      </c>
+      <c r="F11" s="39" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G11" s="72" t="n">
+        <f aca="false">D11/F11</f>
+        <v>1.00000000544705</v>
+      </c>
+      <c r="H11" s="31" t="n">
+        <f aca="false">D11-F11</f>
+        <v>-4.33761709818688E-014</v>
+      </c>
+      <c r="I11" s="71" t="n">
+        <v>8.31613E-126</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="43" t="n">
+        <v>2.65441005996721E-005</v>
+      </c>
+      <c r="C12" s="22" t="n">
+        <f aca="false">B12/B$42</f>
+        <v>0.999999177558416</v>
+      </c>
+      <c r="D12" s="44" t="n">
+        <v>-7.9632301793743E-006</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <f aca="false">D12/F12</f>
+        <v>0.999999177492195</v>
+      </c>
+      <c r="F12" s="44" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G12" s="73" t="n">
+        <f aca="false">D12/F12</f>
+        <v>0.999999177492195</v>
+      </c>
+      <c r="H12" s="46" t="n">
+        <f aca="false">D12-F12</f>
+        <v>6.54982435950298E-012</v>
+      </c>
+      <c r="I12" s="74" t="n">
+        <v>7.24195E-180</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="28" t="n">
+        <v>2.66443805332188E-005</v>
+      </c>
+      <c r="C19" s="22" t="n">
+        <f aca="false">B19/B$42</f>
+        <v>1.00377703586994</v>
+      </c>
+      <c r="D19" s="29" t="n">
+        <v>-7.99331415996565E-006</v>
+      </c>
+      <c r="E19" s="22" t="n">
+        <f aca="false">D19/F19</f>
+        <v>1.00377703586994</v>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G19" s="70" t="n">
+        <f aca="false">D19/F19</f>
+        <v>1.00377703586994</v>
+      </c>
+      <c r="H19" s="31" t="n">
+        <f aca="false">D19-F19</f>
+        <v>-3.00774307669913E-008</v>
+      </c>
+      <c r="I19" s="32" t="n">
+        <v>4.93071E-068</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="28" t="n">
+        <v>2.65636065494564E-005</v>
+      </c>
+      <c r="C20" s="22" t="n">
+        <f aca="false">B20/B$42</f>
+        <v>1.00073402761177</v>
+      </c>
+      <c r="D20" s="29" t="n">
+        <v>-7.96908196483692E-006</v>
+      </c>
+      <c r="E20" s="22" t="n">
+        <f aca="false">D20/F20</f>
+        <v>1.00073402761177</v>
+      </c>
+      <c r="F20" s="29" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G20" s="70" t="n">
+        <f aca="false">D20/F20</f>
+        <v>1.00073402761177</v>
+      </c>
+      <c r="H20" s="31" t="n">
+        <f aca="false">D20-F20</f>
+        <v>-5.84523563826123E-009</v>
+      </c>
+      <c r="I20" s="71" t="n">
+        <v>1.10231E-103</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="28" t="n">
+        <v>2.65371731992932E-005</v>
+      </c>
+      <c r="C21" s="22" t="n">
+        <f aca="false">B21/B$42</f>
+        <v>0.999738200749068</v>
+      </c>
+      <c r="D21" s="29" t="n">
+        <v>-7.96115195978931E-006</v>
+      </c>
+      <c r="E21" s="22" t="n">
+        <f aca="false">D21/F21</f>
+        <v>0.999738200749237</v>
+      </c>
+      <c r="F21" s="29" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G21" s="70" t="n">
+        <f aca="false">D21/F21</f>
+        <v>0.999738200749237</v>
+      </c>
+      <c r="H21" s="31" t="n">
+        <f aca="false">D21-F21</f>
+        <v>2.08476940934949E-009</v>
+      </c>
+      <c r="I21" s="71" t="n">
+        <v>5.94743E-267</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="38" t="n">
+        <v>2.65436822332028E-005</v>
+      </c>
+      <c r="C22" s="22" t="n">
+        <f aca="false">B22/B$42</f>
+        <v>0.999983416386789</v>
+      </c>
+      <c r="D22" s="39" t="n">
+        <v>-7.96310466995944E-006</v>
+      </c>
+      <c r="E22" s="22" t="n">
+        <f aca="false">D22/F22</f>
+        <v>0.999983416386614</v>
+      </c>
+      <c r="F22" s="39" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G22" s="72" t="n">
+        <f aca="false">D22/F22</f>
+        <v>0.999983416386614</v>
+      </c>
+      <c r="H22" s="31" t="n">
+        <f aca="false">D22-F22</f>
+        <v>1.32059239218773E-010</v>
+      </c>
+      <c r="I22" s="75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="43" t="n">
+        <v>2.65441134192322E-005</v>
+      </c>
+      <c r="C23" s="22" t="n">
+        <f aca="false">B23/B$42</f>
+        <v>0.999999660511285</v>
+      </c>
+      <c r="D23" s="44" t="n">
+        <v>-7.96323402489875E-006</v>
+      </c>
+      <c r="E23" s="22" t="n">
+        <f aca="false">D23/F23</f>
+        <v>0.999999660401919</v>
+      </c>
+      <c r="F23" s="44" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="G23" s="73" t="n">
+        <f aca="false">D23/F23</f>
+        <v>0.999999660401919</v>
+      </c>
+      <c r="H23" s="46" t="n">
+        <f aca="false">D23-F23</f>
+        <v>2.70429991029405E-012</v>
+      </c>
+      <c r="I23" s="75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="2" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="67" t="n">
+        <v>-268435455.999973</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>-7.96323672919865E-006</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="69" t="n">
+        <v>-2.12676479325586E+037</v>
+      </c>
+      <c r="D46" s="69" t="n">
+        <v>5.51765372175541E+036</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="50" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+      <c r="D47" s="50" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.8163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.9948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="78" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="50" t="n">
+        <v>8.67561E-257</v>
+      </c>
+      <c r="F4" s="50" t="n">
+        <v>1.10231E-103</v>
+      </c>
+      <c r="G4" s="80" t="n">
+        <v>0.000948483</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="50" t="n">
+        <v>-7.96323672943744E-006</v>
+      </c>
+      <c r="D5" s="50" t="n">
+        <v>-7.96323674838081E-006</v>
+      </c>
+      <c r="E5" s="50" t="n">
+        <v>-7.96324117360925E-006</v>
+      </c>
+      <c r="F5" s="50" t="n">
+        <v>-7.96908198380406E-006</v>
+      </c>
+      <c r="G5" s="50" t="n">
+        <v>-5.31755894922284E-006</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="65" t="n">
+        <f aca="false">+C5-$C$2</f>
+        <v>-2.38781975962776E-016</v>
+      </c>
+      <c r="D6" s="65" t="n">
+        <f aca="false">+D5-$C$2</f>
+        <v>-1.91821503749438E-014</v>
+      </c>
+      <c r="E6" s="65" t="n">
+        <f aca="false">+E5-$C$2</f>
+        <v>-4.44441059035429E-012</v>
+      </c>
+      <c r="F6" s="65" t="n">
+        <f aca="false">+F5-$C$2</f>
+        <v>-5.84525460540076E-009</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="55" t="n">
+        <f aca="false">C5/$C$2</f>
+        <v>1.00000000002999</v>
+      </c>
+      <c r="D7" s="55" t="n">
+        <f aca="false">D5/$C$2</f>
+        <v>1.00000000240884</v>
+      </c>
+      <c r="E7" s="55" t="n">
+        <f aca="false">E5/$C$2</f>
+        <v>1.0000005581161</v>
+      </c>
+      <c r="F7" s="55" t="n">
+        <f aca="false">F5/$C$2</f>
+        <v>1.0007340299936</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="81" t="n">
+        <f aca="false">+C5/$C$2-1</f>
+        <v>2.9985569582891E-011</v>
+      </c>
+      <c r="D8" s="81" t="n">
+        <f aca="false">+D5/$C$2-1</f>
+        <v>2.40883846203133E-009</v>
+      </c>
+      <c r="E8" s="81" t="n">
+        <f aca="false">+E5/$C$2-1</f>
+        <v>5.581160953394E-007</v>
+      </c>
+      <c r="F8" s="81" t="n">
+        <f aca="false">+F5/$C$2-1</f>
+        <v>0.000734029993604057</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="50" t="n">
+        <v>-5.33030286575809E-011</v>
+      </c>
+      <c r="D9" s="50" t="n">
+        <v>-4.40261327394609E-010</v>
+      </c>
+      <c r="E9" s="82" t="n">
+        <v>-6.96404606898016E-009</v>
+      </c>
+      <c r="F9" s="82" t="n">
+        <v>-2.96685276295408E-007</v>
+      </c>
+      <c r="G9" s="50" t="n">
+        <v>-1.53372040530594E-005</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="50" t="n">
+        <v>-5.33035084595488E-011</v>
+      </c>
+      <c r="D10" s="50" t="n">
+        <v>-4.40261404542198E-010</v>
+      </c>
+      <c r="E10" s="82" t="n">
+        <v>-6.96404606697194E-009</v>
+      </c>
+      <c r="F10" s="82" t="n">
+        <v>-2.96685276295345E-007</v>
+      </c>
+      <c r="G10" s="50" t="n">
+        <v>-1.53372040530594E-005</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">C10-C9</f>
+        <v>-4.7980196789408E-016</v>
+      </c>
+      <c r="D11" s="65" t="n">
+        <f aca="false">D10-D9</f>
+        <v>-7.71475890408482E-017</v>
+      </c>
+      <c r="E11" s="65" t="n">
+        <f aca="false">E10-E9</f>
+        <v>2.00822081935011E-018</v>
+      </c>
+      <c r="F11" s="65" t="n">
+        <f aca="false">F10-F9</f>
+        <v>6.3051015011242E-020</v>
+      </c>
+      <c r="G11" s="65" t="n">
+        <f aca="false">G10-G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="50" t="n">
+        <v>2.65441224321102E-005</v>
+      </c>
+      <c r="D12" s="50" t="n">
+        <v>2.65441224946074E-005</v>
+      </c>
+      <c r="E12" s="50" t="n">
+        <v>2.65441372453597E-005</v>
+      </c>
+      <c r="F12" s="50" t="n">
+        <v>2.65636066126802E-005</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="65" t="n">
+        <f aca="false">+C12-$D$2</f>
+        <v>1.44799265893586E-015</v>
+      </c>
+      <c r="D13" s="65" t="n">
+        <f aca="false">+D12-$D$2</f>
+        <v>6.39451938123405E-014</v>
+      </c>
+      <c r="E13" s="65" t="n">
+        <f aca="false">+E12-$D$2</f>
+        <v>1.48146974932549E-011</v>
+      </c>
+      <c r="F13" s="65" t="n">
+        <f aca="false">+F12-$D$2</f>
+        <v>1.94841820179935E-008</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="81" t="n">
+        <f aca="false">+C12/$D$2-1</f>
+        <v>5.45503642257472E-011</v>
+      </c>
+      <c r="D14" s="81" t="n">
+        <f aca="false">+D12/$D$2-1</f>
+        <v>2.40901520953685E-009</v>
+      </c>
+      <c r="E14" s="81" t="n">
+        <f aca="false">+E12/$D$2-1</f>
+        <v>5.58115926807545E-007</v>
+      </c>
+      <c r="F14" s="81" t="n">
+        <f aca="false">+F12/$D$2-1</f>
+        <v>0.000734029993603613</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="78" t="n">
+        <v>-2.58899747288259E-006</v>
+      </c>
+      <c r="D19" s="11" t="n">
+        <v>2.65441224306622E-005</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="79" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="50" t="n">
+        <v>7.57618E-137</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="50" t="n">
+        <v>-2.58946947513818E-006</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="65" t="n">
+        <f aca="false">+C22-$C$19</f>
+        <v>-4.72002255590193E-010</v>
+      </c>
+      <c r="D23" s="65" t="n">
+        <f aca="false">+D22-$C$19</f>
+        <v>2.58899747288259E-006</v>
+      </c>
+      <c r="E23" s="65" t="n">
+        <f aca="false">+E22-$C$19</f>
+        <v>2.58899747288259E-006</v>
+      </c>
+      <c r="F23" s="65" t="n">
+        <f aca="false">+F22-$C$19</f>
+        <v>2.58899747288259E-006</v>
+      </c>
+      <c r="G23" s="65" t="n">
+        <f aca="false">+G22-$C$19</f>
+        <v>2.58899747288259E-006</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="55" t="n">
+        <f aca="false">C22/$C$19</f>
+        <v>1.00018231082129</v>
+      </c>
+      <c r="D24" s="55" t="n">
+        <f aca="false">D22/$C$19</f>
+        <v>-0</v>
+      </c>
+      <c r="E24" s="55" t="n">
+        <f aca="false">E22/$C$19</f>
+        <v>-0</v>
+      </c>
+      <c r="F24" s="55" t="n">
+        <f aca="false">F22/$C$19</f>
+        <v>-0</v>
+      </c>
+      <c r="G24" s="55" t="n">
+        <f aca="false">G22/$C$19</f>
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="81" t="n">
+        <f aca="false">+C22/$C$2-1</f>
+        <v>-0.674821989701321</v>
+      </c>
+      <c r="D25" s="81" t="n">
+        <f aca="false">+D22/$C$2-1</f>
+        <v>-1</v>
+      </c>
+      <c r="E25" s="81" t="n">
+        <f aca="false">+E22/$C$2-1</f>
+        <v>-1</v>
+      </c>
+      <c r="F25" s="81" t="n">
+        <f aca="false">+F22/$C$2-1</f>
+        <v>-1</v>
+      </c>
+      <c r="G25" s="81" t="n">
+        <f aca="false">+G22/$C$2-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="50" t="n">
+        <v>-1.13938647907451E-007</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="50" t="n">
+        <v>-1.13938647907469E-007</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">C27-C26</f>
+        <v>-1.80126850189547E-020</v>
+      </c>
+      <c r="D28" s="65" t="n">
+        <f aca="false">D27-D26</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="65" t="n">
+        <f aca="false">E27-E26</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="65" t="n">
+        <f aca="false">F27-F26</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="65" t="n">
+        <f aca="false">G27-G26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="65" t="n">
+        <f aca="false">+C29-$D$2</f>
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="D30" s="65" t="n">
+        <f aca="false">+D29-$D$2</f>
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="E30" s="65" t="n">
+        <f aca="false">+E29-$D$2</f>
+        <v>-2.65441224306622E-005</v>
+      </c>
+      <c r="F30" s="65" t="n">
+        <f aca="false">+F29-$D$2</f>
+        <v>-2.65441224306622E-005</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="81" t="n">
+        <f aca="false">+C29/$D$2-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D31" s="81" t="n">
+        <f aca="false">+D29/$D$2-1</f>
+        <v>-1</v>
+      </c>
+      <c r="E31" s="81" t="n">
+        <f aca="false">+E29/$D$2-1</f>
+        <v>-1</v>
+      </c>
+      <c r="F31" s="81" t="n">
+        <f aca="false">+F29/$D$2-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CHECK_SWI-FLUX_O2_TOC_Int_0102.xlsx
+++ b/CHECK_SWI-FLUX_O2_TOC_Int_0102.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="433" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="433" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1 diff coeff" sheetId="1" state="visible" r:id="rId2"/>
@@ -281,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.0000000E+000"/>
@@ -293,9 +293,10 @@
     <numFmt numFmtId="172" formatCode="0.000000E+000"/>
     <numFmt numFmtId="173" formatCode="0.0000E+000"/>
     <numFmt numFmtId="174" formatCode="0.000000000"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
-    <numFmt numFmtId="176" formatCode="0.0000"/>
-    <numFmt numFmtId="177" formatCode="0.00000000E+000"/>
+    <numFmt numFmtId="175" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000E+000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -504,7 +505,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -785,6 +786,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,19 +826,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -914,10 +919,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2063,6 +2068,24 @@
       </c>
       <c r="D61" s="2" t="n">
         <v>-7.96323672919865E-006</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="50"/>
+      <c r="C68" s="50" t="n">
+        <v>-7.96323672919866E-006</v>
+      </c>
+      <c r="D68" s="50" t="n">
+        <v>-7.96323507297679E-006</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="50"/>
+      <c r="C69" s="70" t="n">
+        <v>-7.96323672919689E-006</v>
+      </c>
+      <c r="D69" s="50" t="n">
+        <v>-7.96323672943744E-006</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2230,7 @@
       <c r="F8" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G8" s="70" t="n">
+      <c r="G8" s="71" t="n">
         <f aca="false">D8/F8</f>
         <v>-0</v>
       </c>
@@ -2238,7 +2261,7 @@
       <c r="F9" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G9" s="70" t="n">
+      <c r="G9" s="71" t="n">
         <f aca="false">D9/F9</f>
         <v>1.00223824488279</v>
       </c>
@@ -2246,7 +2269,7 @@
         <f aca="false">D9-F9</f>
         <v>-1.78236738595918E-008</v>
       </c>
-      <c r="I9" s="71" t="n">
+      <c r="I9" s="72" t="n">
         <v>1.44959E-038</v>
       </c>
     </row>
@@ -2271,7 +2294,7 @@
       <c r="F10" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G10" s="70" t="n">
+      <c r="G10" s="71" t="n">
         <f aca="false">D10/F10</f>
         <v>1.00000158064292</v>
       </c>
@@ -2279,7 +2302,7 @@
         <f aca="false">D10-F10</f>
         <v>-1.25870337813934E-011</v>
       </c>
-      <c r="I10" s="71" t="n">
+      <c r="I10" s="72" t="n">
         <v>2.00389E-088</v>
       </c>
     </row>
@@ -2304,7 +2327,7 @@
       <c r="F11" s="39" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G11" s="72" t="n">
+      <c r="G11" s="73" t="n">
         <f aca="false">D11/F11</f>
         <v>1.00000000544705</v>
       </c>
@@ -2312,7 +2335,7 @@
         <f aca="false">D11-F11</f>
         <v>-4.33761709818688E-014</v>
       </c>
-      <c r="I11" s="71" t="n">
+      <c r="I11" s="72" t="n">
         <v>8.31613E-126</v>
       </c>
     </row>
@@ -2337,7 +2360,7 @@
       <c r="F12" s="44" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G12" s="73" t="n">
+      <c r="G12" s="74" t="n">
         <f aca="false">D12/F12</f>
         <v>0.999999177492195</v>
       </c>
@@ -2345,7 +2368,7 @@
         <f aca="false">D12-F12</f>
         <v>6.54982435950298E-012</v>
       </c>
-      <c r="I12" s="74" t="n">
+      <c r="I12" s="75" t="n">
         <v>7.24195E-180</v>
       </c>
     </row>
@@ -2442,7 +2465,7 @@
       <c r="F19" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G19" s="70" t="n">
+      <c r="G19" s="71" t="n">
         <f aca="false">D19/F19</f>
         <v>1.00377703586994</v>
       </c>
@@ -2475,7 +2498,7 @@
       <c r="F20" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G20" s="70" t="n">
+      <c r="G20" s="71" t="n">
         <f aca="false">D20/F20</f>
         <v>1.00073402761177</v>
       </c>
@@ -2483,7 +2506,7 @@
         <f aca="false">D20-F20</f>
         <v>-5.84523563826123E-009</v>
       </c>
-      <c r="I20" s="71" t="n">
+      <c r="I20" s="72" t="n">
         <v>1.10231E-103</v>
       </c>
     </row>
@@ -2508,7 +2531,7 @@
       <c r="F21" s="29" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G21" s="70" t="n">
+      <c r="G21" s="71" t="n">
         <f aca="false">D21/F21</f>
         <v>0.999738200749237</v>
       </c>
@@ -2516,7 +2539,7 @@
         <f aca="false">D21-F21</f>
         <v>2.08476940934949E-009</v>
       </c>
-      <c r="I21" s="71" t="n">
+      <c r="I21" s="72" t="n">
         <v>5.94743E-267</v>
       </c>
     </row>
@@ -2541,7 +2564,7 @@
       <c r="F22" s="39" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G22" s="72" t="n">
+      <c r="G22" s="73" t="n">
         <f aca="false">D22/F22</f>
         <v>0.999983416386614</v>
       </c>
@@ -2549,7 +2572,7 @@
         <f aca="false">D22-F22</f>
         <v>1.32059239218773E-010</v>
       </c>
-      <c r="I22" s="75" t="n">
+      <c r="I22" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2574,7 +2597,7 @@
       <c r="F23" s="44" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
-      <c r="G23" s="73" t="n">
+      <c r="G23" s="74" t="n">
         <f aca="false">D23/F23</f>
         <v>0.999999660401919</v>
       </c>
@@ -2582,7 +2605,7 @@
         <f aca="false">D23-F23</f>
         <v>2.70429991029405E-012</v>
       </c>
-      <c r="I23" s="75" t="n">
+      <c r="I23" s="76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2693,7 +2716,7 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2713,22 +2736,22 @@
       <c r="A1" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="77" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="78" t="n">
+      <c r="C2" s="79" t="n">
         <v>-7.96323672919866E-006</v>
       </c>
       <c r="D2" s="11" t="n">
@@ -2751,7 +2774,7 @@
       <c r="F3" s="15" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" s="79" t="n">
+      <c r="G3" s="80" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -2771,7 +2794,7 @@
       <c r="F4" s="50" t="n">
         <v>1.10231E-103</v>
       </c>
-      <c r="G4" s="80" t="n">
+      <c r="G4" s="81" t="n">
         <v>0.000948483</v>
       </c>
     </row>
@@ -2841,19 +2864,19 @@
       <c r="B8" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="81" t="n">
+      <c r="C8" s="82" t="n">
         <f aca="false">+C5/$C$2-1</f>
         <v>2.9985569582891E-011</v>
       </c>
-      <c r="D8" s="81" t="n">
+      <c r="D8" s="82" t="n">
         <f aca="false">+D5/$C$2-1</f>
         <v>2.40883846203133E-009</v>
       </c>
-      <c r="E8" s="81" t="n">
+      <c r="E8" s="82" t="n">
         <f aca="false">+E5/$C$2-1</f>
         <v>5.581160953394E-007</v>
       </c>
-      <c r="F8" s="81" t="n">
+      <c r="F8" s="82" t="n">
         <f aca="false">+F5/$C$2-1</f>
         <v>0.000734029993604057</v>
       </c>
@@ -2868,10 +2891,10 @@
       <c r="D9" s="50" t="n">
         <v>-4.40261327394609E-010</v>
       </c>
-      <c r="E9" s="82" t="n">
+      <c r="E9" s="83" t="n">
         <v>-6.96404606898016E-009</v>
       </c>
-      <c r="F9" s="82" t="n">
+      <c r="F9" s="83" t="n">
         <v>-2.96685276295408E-007</v>
       </c>
       <c r="G9" s="50" t="n">
@@ -2888,10 +2911,10 @@
       <c r="D10" s="50" t="n">
         <v>-4.40261404542198E-010</v>
       </c>
-      <c r="E10" s="82" t="n">
+      <c r="E10" s="83" t="n">
         <v>-6.96404606697194E-009</v>
       </c>
-      <c r="F10" s="82" t="n">
+      <c r="F10" s="83" t="n">
         <v>-2.96685276295345E-007</v>
       </c>
       <c r="G10" s="50" t="n">
@@ -2965,19 +2988,19 @@
       <c r="B14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="81" t="n">
+      <c r="C14" s="82" t="n">
         <f aca="false">+C12/$D$2-1</f>
         <v>5.45503642257472E-011</v>
       </c>
-      <c r="D14" s="81" t="n">
+      <c r="D14" s="82" t="n">
         <f aca="false">+D12/$D$2-1</f>
         <v>2.40901520953685E-009</v>
       </c>
-      <c r="E14" s="81" t="n">
+      <c r="E14" s="82" t="n">
         <f aca="false">+E12/$D$2-1</f>
         <v>5.58115926807545E-007</v>
       </c>
-      <c r="F14" s="81" t="n">
+      <c r="F14" s="82" t="n">
         <f aca="false">+F12/$D$2-1</f>
         <v>0.000734029993603613</v>
       </c>
@@ -2986,22 +3009,22 @@
       <c r="A18" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76" t="s">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="77" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="78" t="n">
+      <c r="C19" s="79" t="n">
         <v>-2.58899747288259E-006</v>
       </c>
       <c r="D19" s="11" t="n">
@@ -3024,7 +3047,7 @@
       <c r="F20" s="15" t="n">
         <v>0.1</v>
       </c>
-      <c r="G20" s="79" t="n">
+      <c r="G20" s="80" t="n">
         <v>0.001</v>
       </c>
     </row>
@@ -3038,7 +3061,7 @@
       <c r="D21" s="50"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
-      <c r="G21" s="80"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="15" t="s">
@@ -3106,23 +3129,23 @@
       <c r="B25" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="81" t="n">
+      <c r="C25" s="82" t="n">
         <f aca="false">+C22/$C$2-1</f>
         <v>-0.674821989701321</v>
       </c>
-      <c r="D25" s="81" t="n">
+      <c r="D25" s="82" t="n">
         <f aca="false">+D22/$C$2-1</f>
         <v>-1</v>
       </c>
-      <c r="E25" s="81" t="n">
+      <c r="E25" s="82" t="n">
         <f aca="false">+E22/$C$2-1</f>
         <v>-1</v>
       </c>
-      <c r="F25" s="81" t="n">
+      <c r="F25" s="82" t="n">
         <f aca="false">+F22/$C$2-1</f>
         <v>-1</v>
       </c>
-      <c r="G25" s="81" t="n">
+      <c r="G25" s="82" t="n">
         <f aca="false">+G22/$C$2-1</f>
         <v>-1</v>
       </c>
@@ -3135,8 +3158,8 @@
         <v>-1.13938647907451E-007</v>
       </c>
       <c r="D26" s="50"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="50"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,8 +3170,8 @@
         <v>-1.13938647907469E-007</v>
       </c>
       <c r="D27" s="50"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
       <c r="G27" s="50"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,25 +3233,25 @@
       <c r="B31" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="81" t="n">
+      <c r="C31" s="82" t="n">
         <f aca="false">+C29/$D$2-1</f>
         <v>-1</v>
       </c>
-      <c r="D31" s="81" t="n">
+      <c r="D31" s="82" t="n">
         <f aca="false">+D29/$D$2-1</f>
         <v>-1</v>
       </c>
-      <c r="E31" s="81" t="n">
+      <c r="E31" s="82" t="n">
         <f aca="false">+E29/$D$2-1</f>
         <v>-1</v>
       </c>
-      <c r="F31" s="81" t="n">
+      <c r="F31" s="82" t="n">
         <f aca="false">+F29/$D$2-1</f>
         <v>-1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="78" t="s">
         <v>85</v>
       </c>
     </row>
